--- a/medicine/Enfance/Lalex/Lalex.xlsx
+++ b/medicine/Enfance/Lalex/Lalex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lalex Andrea, née en 1973 à Paris, est une peintre et illustratrice française, ainsi qu'une autrice d'ouvrage pour la jeunesse et de science-fiction.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études de documentaliste et une maîtrise à la Sorbonne à Paris, Lalex se lance en autodidacte dans le métier de l'illustration. En 2001, elle illustre les ouvrages des américains John Bellairs et Brad Strickland. Elle découvre le métier d'autrice par la suite aux côtés de Kerbraz, et travaille depuis aussi bien seule qu'en collaboration avec d'autres écrivains ou illustrateurs. Elle réalise également des illustrations et des photographies pour des couvertures de livre, ainsi que des tableaux.
 Depuis 2012, sous le pseudonyme complet "Lalex Andrea", elle se consacre aussi à l'écriture et à la peinture, en plus du dessin. Elle s'est aussi spécialisée dans la réalisations de pièces uniques féériques, souvent peintes sur des agates.
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ouvrages pour la jeunesse
-Kévin et les magiciens, illustratrice pour John Bellairs et Brad Strickland, éditions du Rocher, 2001-2006 :
+          <t>Ouvrages pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Kévin et les magiciens, illustratrice pour John Bellairs et Brad Strickland, éditions du Rocher, 2001-2006 :
 La Pendule d'Halloween (2001)
 La Médaille ensorcelée (2002)
 Emily et l'anneau magique (2002)
@@ -575,16 +594,118 @@
 Du petit Poquelin au grand Molière (2005)
 Léonard de Vinci, quel génie ! (2005)
 Cornélia la licorne, dont elle est aussi l'autrice, éditions BookLight, 2012 sous le pseudonyme Lalex Andrea
-Sous le pseudonyme de Lalex Andrea, La-Oty, dont elle est aussi l'autrice, auto-édité par financement participatif sur Ulule, 2014
-Bandes dessinées
-La Cerise dans le labo, scénario Lucie Le Moine, 13 illustratrices, EDP Sciences, 2023
-Illustrations de couverture
-Les messages cachés d'Harry Potter, Méziane Hammadi, éditions Alphée, 2008 sous le pseudonyme Alexandréa
+Sous le pseudonyme de Lalex Andrea, La-Oty, dont elle est aussi l'autrice, auto-édité par financement participatif sur Ulule, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lalex</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lalex</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Cerise dans le labo, scénario Lucie Le Moine, 13 illustratrices, EDP Sciences, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lalex</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lalex</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustrations de couverture</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les messages cachés d'Harry Potter, Méziane Hammadi, éditions Alphée, 2008 sous le pseudonyme Alexandréa
 Guide de la séduction sur Internet, Anne Berthus, éditions Alphée, 2009
 Les Mystères de Saint-Pétersbourg, Isabelle Saint-Bris, éditions Alphée, 2010 avec une photographie personnelle retravaillée au lieu d'une illustration
-Noëls de l'Histoire, histoires de Noël, Philippe Vidal, éditions Alphée, 2010
-Nouvelles
-Une pantoufle à vapeur, dans l'anthologie Nutty Steampunk, éditions Nutty Sheep, 2018
+Noëls de l'Histoire, histoires de Noël, Philippe Vidal, éditions Alphée, 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lalex</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lalex</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Une pantoufle à vapeur, dans l'anthologie Nutty Steampunk, éditions Nutty Sheep, 2018
 Point de vue, dans l'anthologie Civilisations, éditions Les Vagabonds du Rêve, 2018
 Objectif Ubiquité, dans le numéro 59 de la revue e-Galaxies, 2019
 Une question de survie, dans l'anthologie Rouge, éditions Les Vagabonds du Rêve, 2019
@@ -593,12 +714,80 @@
 Technokarma, dans le numéro 66 de la revue e-Galaxies, 2020
 La-Oty, dans l'anthologie Terre 2.0, éditions Les Vagabonds du Rêve, 2021
 Bata-Fel', dans l'anthologie Cyber-Punk Féérique, éditions Livresque, 2022
-Malinche, princesse aztèque, dans l'anthologie Uchronies III, dans le numéro 75ter de la revue Galaxies, 2022
-Romans et séries
-Cicatrices &amp; Ottomanes, Rocambole, 2020
-Une parisienne à Lhassa, Rocambole, 2020
-Jeux de société
-L'école de Nicolas Flamel, JyDe Games, 2023</t>
+Malinche, princesse aztèque, dans l'anthologie Uchronies III, dans le numéro 75ter de la revue Galaxies, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lalex</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lalex</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans et séries</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cicatrices &amp; Ottomanes, Rocambole, 2020
+Une parisienne à Lhassa, Rocambole, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lalex</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lalex</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Jeux de société</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L'école de Nicolas Flamel, JyDe Games, 2023</t>
         </is>
       </c>
     </row>
